--- a/fein-david-258-final-timesheet.xlsx
+++ b/fein-david-258-final-timesheet.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22202"/>
   <workbookPr date1904="1" showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="5580" windowWidth="47200" windowHeight="26520" tabRatio="500"/>
+    <workbookView xWindow="16320" yWindow="2060" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>ASSIGNMENT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,13 +139,73 @@
   <si>
     <t>should ask for more help</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sitemap</t>
+  </si>
+  <si>
+    <t>wireframe</t>
+  </si>
+  <si>
+    <t>kahala mall</t>
+  </si>
+  <si>
+    <t>nokia</t>
+  </si>
+  <si>
+    <t>2 hour</t>
+  </si>
+  <si>
+    <t>3hour</t>
+  </si>
+  <si>
+    <t>1 hour</t>
+  </si>
+  <si>
+    <t>in design difficulties</t>
+  </si>
+  <si>
+    <t>5 hours</t>
+  </si>
+  <si>
+    <t>5.5 hours</t>
+  </si>
+  <si>
+    <t>.5 hours</t>
+  </si>
+  <si>
+    <t>20 hours</t>
+  </si>
+  <si>
+    <t>2 hours</t>
+  </si>
+  <si>
+    <t>25 hours</t>
+  </si>
+  <si>
+    <t>27 hours</t>
+  </si>
+  <si>
+    <t>more comfortable w/ InD</t>
+  </si>
+  <si>
+    <t>26 hours</t>
+  </si>
+  <si>
+    <t>6 hours</t>
+  </si>
+  <si>
+    <t>difficult first coding</t>
+  </si>
+  <si>
+    <t>difficulties with skeleton</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -184,16 +244,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -516,14 +577,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A4:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
@@ -560,70 +621,138 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D11" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C13" t="s">
         <v>26</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D13" t="s">
         <v>28</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -635,7 +764,7 @@
     <oddHeader>&amp;LDAVID FEIN TIMESHEET ART 258 2014</oddHeader>
   </headerFooter>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="0"/>
     </ext>
   </extLst>

--- a/fein-david-258-final-timesheet.xlsx
+++ b/fein-david-258-final-timesheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22202"/>
   <workbookPr date1904="1" showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16320" yWindow="2060" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="2840" yWindow="1480" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
